--- a/18-12-22/health-infrastructure.xlsx
+++ b/18-12-22/health-infrastructure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarfa\Desktop\Stat-Devs\Repositories\Website-Development\Exploratory-Sunday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarfa\Desktop\Stat-Devs\Repositories\Website-Development\Exploratory-Sunday\18-12-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B36FDF2-B804-4240-B630-D294621F796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE260C3-C473-4866-B548-938193038821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B9E5F61-8074-4F94-9725-8623FDC58BFB}"/>
   </bookViews>
